--- a/public/data/master_template.xlsx
+++ b/public/data/master_template.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,142 +438,4298 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>cholesterol_total</v>
+        <v>cardiovascular_1</v>
       </c>
       <c r="B2" t="str">
-        <v>Total Cholesterol</v>
+        <v>Resting Heart Rate</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>mg/dL</v>
+        <v>beats/min (bpm)</v>
       </c>
       <c r="E2" t="str">
-        <v>cholesterol_like</v>
+        <v>beats_min__bpm__group</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H2" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I2" t="str">
-        <v>CDC</v>
+        <v>Medical Catalog</v>
       </c>
       <c r="J2" t="str">
-        <v>Total cholesterol level</v>
+        <v>Resting Heart Rate - Cardiovascular</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>hdl</v>
+        <v>cardiovascular_2</v>
       </c>
       <c r="B3" t="str">
-        <v>HDL Cholesterol</v>
+        <v>Blood Pressure (Systolic)</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>mg/dL</v>
+        <v>mmHg</v>
       </c>
       <c r="E3" t="str">
-        <v>cholesterol_like</v>
+        <v>mmhg_group</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H3" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I3" t="str">
-        <v>CDC</v>
+        <v>Medical Catalog</v>
       </c>
       <c r="J3" t="str">
-        <v>High-density lipoprotein (good cholesterol)</v>
+        <v>Blood Pressure (Systolic) - Cardiovascular</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ldl</v>
+        <v>cardiovascular_3</v>
       </c>
       <c r="B4" t="str">
-        <v>LDL Cholesterol</v>
+        <v>Blood Pressure (Diastolic)</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>mg/dL</v>
+        <v>mmHg</v>
       </c>
       <c r="E4" t="str">
-        <v>cholesterol_like</v>
+        <v>mmhg_group</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H4" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I4" t="str">
-        <v>CDC</v>
+        <v>Medical Catalog</v>
       </c>
       <c r="J4" t="str">
-        <v>Low-density lipoprotein (bad cholesterol)</v>
+        <v>Blood Pressure (Diastolic) - Cardiovascular</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>glucose_fasting</v>
+        <v>cardiovascular_4</v>
       </c>
       <c r="B5" t="str">
+        <v>Left Ventricular Ejection Fraction (LVEF)</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>%</v>
+      </c>
+      <c r="E5" t="str">
+        <v>__group</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5" t="str">
+        <v>N</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Left Ventricular Ejection Fraction (LVEF) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>cardiovascular_5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Cardiac Output (Resting)</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <v>L/min</v>
+      </c>
+      <c r="E6" t="str">
+        <v>l_min_group</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="str">
+        <v>N</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Cardiac Output (Resting) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Total Cholesterol</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E7" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F7">
+        <v>125</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Y</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Total Cholesterol - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>cardiovascular_7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>LDL</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E8" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Y</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J8" t="str">
+        <v>LDL - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>cardiovascular_8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>HDL</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E9" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Y</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J9" t="str">
+        <v>HDL - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>cardiovascular_9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Triglycerides</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E10" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Y</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Triglycerides - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>cardiovascular_10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Lipoprotein (a)</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E11" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" t="str">
+        <v>N</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Lipoprotein (a) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>cardiovascular_11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Apolipoprotein B (ApoB)</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E12" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" t="str">
+        <v>N</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Apolipoprotein B (ApoB) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>cardiovascular_12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Homocysteine</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <v>μmol/L</v>
+      </c>
+      <c r="E13" t="str">
+        <v>_mol_l_group</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" t="str">
+        <v>N</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Homocysteine - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>cardiovascular_13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>High-sensitivity CRP (hs-CRP)</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <v>mg/L</v>
+      </c>
+      <c r="E14" t="str">
+        <v>mg_l_group</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="str">
+        <v>N</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J14" t="str">
+        <v>High-sensitivity CRP (hs-CRP) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>cardiovascular_14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Fibrinogen</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E15" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>400</v>
+      </c>
+      <c r="H15" t="str">
+        <v>N</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Fibrinogen - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>cardiovascular_15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>D-dimer</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <v>μg/mL FEU</v>
+      </c>
+      <c r="E16" t="str">
+        <v>_g_ml_feu_group</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="str">
+        <v>N</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J16" t="str">
+        <v>D-dimer - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>cardiovascular_16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Cardiac Troponin (cTnI or cTnT)</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <v>ng/L (hs assays)</v>
+      </c>
+      <c r="E17" t="str">
+        <v>ng_l__hs_assays__group</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17" t="str">
+        <v>N</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Cardiac Troponin (cTnI or cTnT) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>cardiovascular_17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Creatine Kinase (CK), total</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="E18" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>220</v>
+      </c>
+      <c r="H18" t="str">
+        <v>N</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Creatine Kinase (CK), total - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>cardiovascular_18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>B-type Natriuretic Peptide (BNP)</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="E19" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19" t="str">
+        <v>N</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J19" t="str">
+        <v>B-type Natriuretic Peptide (BNP) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>cardiovascular_19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>NT-proBNP</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="E20" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>125</v>
+      </c>
+      <c r="H20" t="str">
+        <v>N</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J20" t="str">
+        <v>NT-proBNP - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>cardiovascular_20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Myeloperoxidase (MPO)</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <v>pmol/L</v>
+      </c>
+      <c r="E21" t="str">
+        <v>pmol_l_group</v>
+      </c>
+      <c r="F21">
+        <v>470</v>
+      </c>
+      <c r="G21">
+        <v>539</v>
+      </c>
+      <c r="H21" t="str">
+        <v>N</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Myeloperoxidase (MPO) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>cardiovascular_21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Trimethylamine N-oxide (TMAO)</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <v>μM</v>
+      </c>
+      <c r="E22" t="str">
+        <v>_m_group</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6.2</v>
+      </c>
+      <c r="H22" t="str">
+        <v>N</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Trimethylamine N-oxide (TMAO) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>cardiovascular_22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Hemoglobin (Blood)</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <v>g/dL</v>
+      </c>
+      <c r="E23" t="str">
+        <v>g_dl_group</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23" t="str">
+        <v>N</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Hemoglobin (Blood) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>cardiovascular_23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Hematocrit</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>% (fraction)</v>
+      </c>
+      <c r="E24" t="str">
+        <v>___fraction__group</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>55</v>
+      </c>
+      <c r="H24" t="str">
+        <v>N</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Hematocrit - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>cardiovascular_24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Red Blood Cell Count</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <v>million/μL</v>
+      </c>
+      <c r="E25" t="str">
+        <v>million__l_group</v>
+      </c>
+      <c r="F25">
+        <v>4.2</v>
+      </c>
+      <c r="G25">
+        <v>6.1</v>
+      </c>
+      <c r="H25" t="str">
+        <v>N</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Red Blood Cell Count - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>cardiovascular_25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Red Cell Distribution Width (RDW)</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="str">
+        <v>%</v>
+      </c>
+      <c r="E26" t="str">
+        <v>__group</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26" t="str">
+        <v>N</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Red Cell Distribution Width (RDW) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>cardiovascular_26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Mean Corpuscular Volume (MCV)</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>fL</v>
+      </c>
+      <c r="E27" t="str">
+        <v>fl_group</v>
+      </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27" t="str">
+        <v>N</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Mean Corpuscular Volume (MCV) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>cardiovascular_27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Mean Corpuscular Hemoglobin (MCH)</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <v>pg/cell</v>
+      </c>
+      <c r="E28" t="str">
+        <v>pg_cell_group</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>31</v>
+      </c>
+      <c r="H28" t="str">
+        <v>N</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Mean Corpuscular Hemoglobin (MCH) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>cardiovascular_28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>MCH Concentration (MCHC)</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>g/dL</v>
+      </c>
+      <c r="E29" t="str">
+        <v>g_dl_group</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>36</v>
+      </c>
+      <c r="H29" t="str">
+        <v>N</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J29" t="str">
+        <v>MCH Concentration (MCHC) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>cardiovascular_29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Ankle-Brachial Index (ABI)</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>ratio (unitless)</v>
+      </c>
+      <c r="E30" t="str">
+        <v>ratio__unitless__group</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.4</v>
+      </c>
+      <c r="H30" t="str">
+        <v>N</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Ankle-Brachial Index (ABI) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>nervous_brain_1</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CSF Opening Pressure</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="str">
+        <v>mm H2O</v>
+      </c>
+      <c r="E31" t="str">
+        <v>mm_h2o_group</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>180</v>
+      </c>
+      <c r="H31" t="str">
+        <v>N</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J31" t="str">
+        <v>CSF Opening Pressure - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>nervous_brain_2</v>
+      </c>
+      <c r="B32" t="str">
+        <v>CSF Total Protein</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E32" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>60</v>
+      </c>
+      <c r="H32" t="str">
+        <v>N</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J32" t="str">
+        <v>CSF Total Protein - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>nervous_brain_3</v>
+      </c>
+      <c r="B33" t="str">
+        <v>CSF Glucose</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E33" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>80</v>
+      </c>
+      <c r="H33" t="str">
+        <v>N</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J33" t="str">
+        <v>CSF Glucose - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>nervous_brain_4</v>
+      </c>
+      <c r="B34" t="str">
+        <v>CSF White Blood Cells</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="str">
+        <v>cells/μL</v>
+      </c>
+      <c r="E34" t="str">
+        <v>cells__l_group</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" t="str">
+        <v>N</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J34" t="str">
+        <v>CSF White Blood Cells - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>nervous_brain_5</v>
+      </c>
+      <c r="B35" t="str">
+        <v>CSF Red Blood Cells</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>cells/μL</v>
+      </c>
+      <c r="E35" t="str">
+        <v>cells__l_group</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <v>N</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J35" t="str">
+        <v>CSF Red Blood Cells - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>nervous_brain_6</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CSF Chloride</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="str">
+        <v>mEq/L</v>
+      </c>
+      <c r="E36" t="str">
+        <v>meq_l_group</v>
+      </c>
+      <c r="F36">
+        <v>110</v>
+      </c>
+      <c r="G36">
+        <v>125</v>
+      </c>
+      <c r="H36" t="str">
+        <v>N</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J36" t="str">
+        <v>CSF Chloride - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>nervous_brain_7</v>
+      </c>
+      <c r="B37" t="str">
+        <v>CSF Gamma Globulin</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="str">
+        <v>%</v>
+      </c>
+      <c r="E37" t="str">
+        <v>__group</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" t="str">
+        <v>N</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J37" t="str">
+        <v>CSF Gamma Globulin - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>nervous_brain_8</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Serum Vitamin B12</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="E38" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+      <c r="G38">
+        <v>900</v>
+      </c>
+      <c r="H38" t="str">
+        <v>N</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Serum Vitamin B12 - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>nervous_brain_9</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Serum Folate (Vitamin B9)</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="str">
+        <v>ng/mL</v>
+      </c>
+      <c r="E39" t="str">
+        <v>ng_ml_group</v>
+      </c>
+      <c r="F39">
+        <v>2.7</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39" t="str">
+        <v>N</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Serum Folate (Vitamin B9) - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>nervous_brain_10</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Intracranial Pressure (ICP)</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="str">
+        <v>mmHg</v>
+      </c>
+      <c r="E40" t="str">
+        <v>mmhg_group</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40" t="str">
+        <v>N</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Intracranial Pressure (ICP) - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>nervous_brain_11</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Glasgow Coma Scale (GCS)</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="str">
+        <v>score (3–15)</v>
+      </c>
+      <c r="E41" t="str">
+        <v>score__3_15__group</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41" t="str">
+        <v>N</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Glasgow Coma Scale (GCS) - Nervous/Brain</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>respiratory_1</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Arterial Blood pH</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="str">
+        <v>pH units</v>
+      </c>
+      <c r="E42" t="str">
+        <v>ph_units_group</v>
+      </c>
+      <c r="F42">
+        <v>7.35</v>
+      </c>
+      <c r="G42">
+        <v>7.45</v>
+      </c>
+      <c r="H42" t="str">
+        <v>N</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Arterial Blood pH - Respiratory</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>respiratory_2</v>
+      </c>
+      <c r="B43" t="str">
+        <v>PaO2 (Arterial O₂)</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="str">
+        <v>mmHg</v>
+      </c>
+      <c r="E43" t="str">
+        <v>mmhg_group</v>
+      </c>
+      <c r="F43">
+        <v>80</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43" t="str">
+        <v>N</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J43" t="str">
+        <v>PaO2 (Arterial O₂) - Respiratory</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>respiratory_3</v>
+      </c>
+      <c r="B44" t="str">
+        <v>PaCO2 (Arterial CO₂)</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="str">
+        <v>mmHg</v>
+      </c>
+      <c r="E44" t="str">
+        <v>mmhg_group</v>
+      </c>
+      <c r="F44">
+        <v>35</v>
+      </c>
+      <c r="G44">
+        <v>45</v>
+      </c>
+      <c r="H44" t="str">
+        <v>N</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J44" t="str">
+        <v>PaCO2 (Arterial CO₂) - Respiratory</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>respiratory_4</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Bicarbonate (HCO₃⁻)</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="str">
+        <v>mEq/L</v>
+      </c>
+      <c r="E45" t="str">
+        <v>meq_l_group</v>
+      </c>
+      <c r="F45">
+        <v>22</v>
+      </c>
+      <c r="G45">
+        <v>26</v>
+      </c>
+      <c r="H45" t="str">
+        <v>N</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Bicarbonate (HCO₃⁻) - Respiratory</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>respiratory_5</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Oxygen Saturation (SpO₂)</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="str">
+        <v>% (on room air)</v>
+      </c>
+      <c r="E46" t="str">
+        <v>___on_room_air__group</v>
+      </c>
+      <c r="F46">
+        <v>95</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46" t="str">
+        <v>N</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Oxygen Saturation (SpO₂) - Respiratory</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>respiratory_6</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Respiratory Rate</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="str">
+        <v>breaths/min</v>
+      </c>
+      <c r="E47" t="str">
+        <v>breaths_min_group</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>18</v>
+      </c>
+      <c r="H47" t="str">
+        <v>N</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Respiratory Rate - Respiratory</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>respiratory_7</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Tidal Volume</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="str">
+        <v>mL (at rest)</v>
+      </c>
+      <c r="E48" t="str">
+        <v>ml__at_rest__group</v>
+      </c>
+      <c r="F48">
+        <v>500</v>
+      </c>
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="H48" t="str">
+        <v>N</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Tidal Volume - Respiratory</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>respiratory_8</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Vital Capacity (FVC)</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="str">
+        <v>liters</v>
+      </c>
+      <c r="E49" t="str">
+        <v>liters_group</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49" t="str">
+        <v>N</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Vital Capacity (FVC) - Respiratory</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>respiratory_9</v>
+      </c>
+      <c r="B50" t="str">
+        <v>FEV₁/FVC Ratio</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="str">
+        <v>ratio (no units)</v>
+      </c>
+      <c r="E50" t="str">
+        <v>ratio__no_units__group</v>
+      </c>
+      <c r="F50">
+        <v>0.75</v>
+      </c>
+      <c r="G50">
+        <v>80</v>
+      </c>
+      <c r="H50" t="str">
+        <v>N</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J50" t="str">
+        <v>FEV₁/FVC Ratio - Respiratory</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>respiratory_10</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Peak Expiratory Flow (PEF)</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="str">
+        <v>L/min</v>
+      </c>
+      <c r="E51" t="str">
+        <v>l_min_group</v>
+      </c>
+      <c r="F51">
+        <v>400</v>
+      </c>
+      <c r="G51">
+        <v>600</v>
+      </c>
+      <c r="H51" t="str">
+        <v>N</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Peak Expiratory Flow (PEF) - Respiratory</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>digestive_1</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Alanine Aminotransferase (ALT)</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="E52" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>55</v>
+      </c>
+      <c r="H52" t="str">
+        <v>N</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Alanine Aminotransferase (ALT) - Digestive</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>digestive_2</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Aspartate Aminotransferase (AST)</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="E53" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>48</v>
+      </c>
+      <c r="H53" t="str">
+        <v>N</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Aspartate Aminotransferase (AST) - Digestive</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>digestive_3</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Alkaline Phosphatase (ALP)</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="E54" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="F54">
+        <v>44</v>
+      </c>
+      <c r="G54">
+        <v>147</v>
+      </c>
+      <c r="H54" t="str">
+        <v>N</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Alkaline Phosphatase (ALP) - Digestive</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>digestive_4</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Gamma-Glutamyl Transferase (GGT)</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="E55" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>48</v>
+      </c>
+      <c r="H55" t="str">
+        <v>N</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Gamma-Glutamyl Transferase (GGT) - Digestive</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>digestive_5</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Total Bilirubin</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E56" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
+      <c r="G56">
+        <v>1.2</v>
+      </c>
+      <c r="H56" t="str">
+        <v>N</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Total Bilirubin - Digestive</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>digestive_6</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Amylase (Pancreatic)</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="E57" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>110</v>
+      </c>
+      <c r="H57" t="str">
+        <v>N</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Amylase (Pancreatic) - Digestive</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>digestive_7</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Lipase (Pancreatic)</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="E58" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>160</v>
+      </c>
+      <c r="H58" t="str">
+        <v>N</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Lipase (Pancreatic) - Digestive</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>digestive_8</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Serum Albumin</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="str">
+        <v>g/dL</v>
+      </c>
+      <c r="E59" t="str">
+        <v>g_dl_group</v>
+      </c>
+      <c r="F59">
+        <v>3.5</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59" t="str">
+        <v>N</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Serum Albumin - Digestive</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>digestive_9</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Serum Iron</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="str">
+        <v>μg/dL</v>
+      </c>
+      <c r="E60" t="str">
+        <v>_g_dl_group</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60">
+        <v>170</v>
+      </c>
+      <c r="H60" t="str">
+        <v>N</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Serum Iron - Digestive</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>digestive_10</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Ferritin</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="str">
+        <v>ng/mL</v>
+      </c>
+      <c r="E61" t="str">
+        <v>ng_ml_group</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>250</v>
+      </c>
+      <c r="H61" t="str">
+        <v>N</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Ferritin - Digestive</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>endocrine_hormonal_1</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Thyroid Stimulating Hormone (TSH)</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="str">
+        <v>mIU/L</v>
+      </c>
+      <c r="E62" t="str">
+        <v>miu_l_group</v>
+      </c>
+      <c r="F62">
+        <v>0.4</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62" t="str">
+        <v>N</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Thyroid Stimulating Hormone (TSH) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>endocrine_hormonal_2</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Free T4 (Thyroxine)</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="str">
+        <v>ng/dL</v>
+      </c>
+      <c r="E63" t="str">
+        <v>ng_dl_group</v>
+      </c>
+      <c r="F63">
+        <v>0.8</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="str">
+        <v>N</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Free T4 (Thyroxine) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>endocrine_hormonal_3</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Free T3 (Triiodothyronine)</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="E64" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="F64">
+        <v>2.3</v>
+      </c>
+      <c r="G64">
+        <v>4.2</v>
+      </c>
+      <c r="H64" t="str">
+        <v>N</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Free T3 (Triiodothyronine) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>endocrine_hormonal_4</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Morning Cortisol (8 AM)</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="str">
+        <v>μg/dL</v>
+      </c>
+      <c r="E65" t="str">
+        <v>_g_dl_group</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65" t="str">
+        <v>N</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J65" t="str">
+        <v>Morning Cortisol (8 AM) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>endocrine_hormonal_5</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Afternoon Cortisol (4 PM)</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" t="str">
+        <v>μg/dL</v>
+      </c>
+      <c r="E66" t="str">
+        <v>_g_dl_group</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66" t="str">
+        <v>N</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Afternoon Cortisol (4 PM) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="B67" t="str">
         <v>Fasting Glucose</v>
       </c>
-      <c r="C5">
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E67" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F67">
+        <v>70</v>
+      </c>
+      <c r="G67">
+        <v>99</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Y</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Fasting Glucose - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Hemoglobin A1c (HbA1c)</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="str">
+        <v>% (of total Hb)</v>
+      </c>
+      <c r="E68" t="str">
+        <v>___of_total_hb__group</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>5.7</v>
+      </c>
+      <c r="H68" t="str">
+        <v>N</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Hemoglobin A1c (HbA1c) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>endocrine_hormonal_8</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Fasting Insulin</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="str">
+        <v>μIU/mL</v>
+      </c>
+      <c r="E69" t="str">
+        <v>_iu_ml_group</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>25</v>
+      </c>
+      <c r="H69" t="str">
+        <v>N</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Fasting Insulin - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Vitamin D, 25-OH</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="str">
+        <v>ng/mL</v>
+      </c>
+      <c r="E70" t="str">
+        <v>ng_ml_group</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70" t="str">
+        <v>N</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Vitamin D, 25-OH - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>endocrine_hormonal_10</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Calcium (Total Serum)</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E71" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F71">
+        <v>8.5</v>
+      </c>
+      <c r="G71">
+        <v>10.5</v>
+      </c>
+      <c r="H71" t="str">
+        <v>N</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Calcium (Total Serum) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>endocrine_hormonal_11</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Parathyroid Hormone (PTH)</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="E72" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>65</v>
+      </c>
+      <c r="H72" t="str">
+        <v>N</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Parathyroid Hormone (PTH) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>endocrine_hormonal_12</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Estradiol (Female)</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="E73" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>350</v>
+      </c>
+      <c r="H73" t="str">
+        <v>N</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Estradiol (Female) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>endocrine_hormonal_13</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Testosterone (Total)</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="str">
+        <v>ng/dL</v>
+      </c>
+      <c r="E74" t="str">
+        <v>ng_dl_group</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74" t="str">
+        <v>N</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Testosterone (Total) - Endocrine/Hormonal</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>urinary_renal_1</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Blood Urea Nitrogen (BUN)</v>
+      </c>
+      <c r="C75">
         <v>6</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D75" t="str">
         <v>mg/dL</v>
       </c>
-      <c r="E5" t="str">
-        <v>glucose_like</v>
-      </c>
-      <c r="F5">
+      <c r="E75" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>20</v>
+      </c>
+      <c r="H75" t="str">
+        <v>N</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Blood Urea Nitrogen (BUN) - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>urinary_renal_2</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Serum Creatinine</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E76" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F76">
+        <v>0.59</v>
+      </c>
+      <c r="G76">
+        <v>1.35</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Y</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Serum Creatinine - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>urinary_renal_3</v>
+      </c>
+      <c r="B77" t="str">
+        <v>eGFR (estimated GFR)</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77" t="str">
+        <v>mL/min/1.73 m²</v>
+      </c>
+      <c r="E77" t="str">
+        <v>ml_min_1_73_m__group</v>
+      </c>
+      <c r="F77">
+        <v>90</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="str">
+        <v>N</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J77" t="str">
+        <v>eGFR (estimated GFR) - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>urinary_renal_4</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Sodium (Serum)</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78" t="str">
+        <v>mmol/L</v>
+      </c>
+      <c r="E78" t="str">
+        <v>mmol_l_group</v>
+      </c>
+      <c r="F78">
+        <v>135</v>
+      </c>
+      <c r="G78">
+        <v>145</v>
+      </c>
+      <c r="H78" t="str">
+        <v>N</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J78" t="str">
+        <v>Sodium (Serum) - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>urinary_renal_5</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Potassium (Serum)</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" t="str">
+        <v>mmol/L</v>
+      </c>
+      <c r="E79" t="str">
+        <v>mmol_l_group</v>
+      </c>
+      <c r="F79">
+        <v>3.5</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79" t="str">
+        <v>N</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Potassium (Serum) - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>urinary_renal_6</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Chloride (Serum)</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80" t="str">
+        <v>mmol/L</v>
+      </c>
+      <c r="E80" t="str">
+        <v>mmol_l_group</v>
+      </c>
+      <c r="F80">
+        <v>98</v>
+      </c>
+      <c r="G80">
+        <v>107</v>
+      </c>
+      <c r="H80" t="str">
+        <v>N</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Chloride (Serum) - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>urinary_renal_7</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Serum Phosphate</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E81" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F81">
+        <v>2.5</v>
+      </c>
+      <c r="G81">
+        <v>4.5</v>
+      </c>
+      <c r="H81" t="str">
+        <v>N</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Serum Phosphate - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>urinary_renal_8</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Serum Magnesium</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E82" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F82">
+        <v>1.8</v>
+      </c>
+      <c r="G82">
+        <v>2.4</v>
+      </c>
+      <c r="H82" t="str">
+        <v>N</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J82" t="str">
+        <v>Serum Magnesium - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>urinary_renal_9</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Urine Specific Gravity</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="str">
+        <v>(ratio)</v>
+      </c>
+      <c r="E83" t="str">
+        <v>_ratio__group</v>
+      </c>
+      <c r="F83">
+        <v>1.005</v>
+      </c>
+      <c r="G83">
+        <v>1.03</v>
+      </c>
+      <c r="H83" t="str">
+        <v>N</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J83" t="str">
+        <v>Urine Specific Gravity - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>urinary_renal_10</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Urine pH</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84" t="str">
+        <v>pH units</v>
+      </c>
+      <c r="E84" t="str">
+        <v>ph_units_group</v>
+      </c>
+      <c r="F84">
+        <v>4.5</v>
+      </c>
+      <c r="G84">
+        <v>8</v>
+      </c>
+      <c r="H84" t="str">
+        <v>N</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J84" t="str">
+        <v>Urine pH - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>urinary_renal_11</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Urine Protein</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" t="str">
+        <v>mg/day</v>
+      </c>
+      <c r="E85" t="str">
+        <v>mg_day_group</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>150</v>
+      </c>
+      <c r="H85" t="str">
+        <v>N</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Urine Protein - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>urinary_renal_12</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Urine Albumin-Creatinine Ratio</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="str">
+        <v>mg/g</v>
+      </c>
+      <c r="E86" t="str">
+        <v>mg_g_group</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>30</v>
+      </c>
+      <c r="H86" t="str">
+        <v>N</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J86" t="str">
+        <v>Urine Albumin-Creatinine Ratio - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>urinary_renal_13</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Urine RBCs (microscopic)</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="str">
+        <v>per HPF</v>
+      </c>
+      <c r="E87" t="str">
+        <v>per_hpf_group</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" t="str">
+        <v>N</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Urine RBCs (microscopic) - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>urinary_renal_14</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Urine WBCs (microscopic)</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88" t="str">
+        <v>per HPF</v>
+      </c>
+      <c r="E88" t="str">
+        <v>per_hpf_group</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88" t="str">
+        <v>N</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Urine WBCs (microscopic) - Urinary/Renal</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>reproductive_1</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Follicle-Stim. Hormone (FSH)</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89" t="str">
+        <v>mIU/mL</v>
+      </c>
+      <c r="E89" t="str">
+        <v>miu_ml_group</v>
+      </c>
+      <c r="F89">
+        <v>1.5</v>
+      </c>
+      <c r="G89">
+        <v>13</v>
+      </c>
+      <c r="H89" t="str">
+        <v>N</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Follicle-Stim. Hormone (FSH) - Reproductive</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>reproductive_2</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Luteinizing Hormone (LH)</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90" t="str">
+        <v>mIU/mL</v>
+      </c>
+      <c r="E90" t="str">
+        <v>miu_ml_group</v>
+      </c>
+      <c r="F90">
+        <v>1.8</v>
+      </c>
+      <c r="G90">
+        <v>15</v>
+      </c>
+      <c r="H90" t="str">
+        <v>N</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Luteinizing Hormone (LH) - Reproductive</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>reproductive_3</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Estradiol (E2, Female)</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="E91" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>250</v>
+      </c>
+      <c r="H91" t="str">
+        <v>N</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Estradiol (E2, Female) - Reproductive</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>reproductive_4</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Progesterone (Female)</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92" t="str">
+        <v>ng/mL</v>
+      </c>
+      <c r="E92" t="str">
+        <v>ng_ml_group</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>20</v>
+      </c>
+      <c r="H92" t="str">
+        <v>N</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Progesterone (Female) - Reproductive</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>reproductive_5</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Total Testosterone</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93" t="str">
+        <v>ng/dL</v>
+      </c>
+      <c r="E93" t="str">
+        <v>ng_dl_group</v>
+      </c>
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93">
+        <v>1000</v>
+      </c>
+      <c r="H93" t="str">
+        <v>N</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Total Testosterone - Reproductive</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>reproductive_6</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Prostate-Specific Antigen (PSA)</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94" t="str">
+        <v>ng/mL</v>
+      </c>
+      <c r="E94" t="str">
+        <v>ng_ml_group</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94" t="str">
+        <v>N</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Prostate-Specific Antigen (PSA) - Reproductive</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>reproductive_7</v>
+      </c>
+      <c r="B95" t="str">
+        <v>hCG (Pregnancy Test)</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95" t="str">
+        <v>mIU/mL</v>
+      </c>
+      <c r="E95" t="str">
+        <v>miu_ml_group</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95" t="str">
+        <v>N</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J95" t="str">
+        <v>hCG (Pregnancy Test) - Reproductive</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>reproductive_8</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Anti-Müllerian Hormone (AMH)</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96" t="str">
+        <v>ng/mL</v>
+      </c>
+      <c r="E96" t="str">
+        <v>ng_ml_group</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96" t="str">
+        <v>N</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Anti-Müllerian Hormone (AMH) - Reproductive</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>reproductive_9</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Semen Sperm Count</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="D97" t="str">
+        <v>per mL</v>
+      </c>
+      <c r="E97" t="str">
+        <v>per_ml_group</v>
+      </c>
+      <c r="F97">
+        <v>15000000</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="str">
+        <v>N</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Semen Sperm Count - Reproductive</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>integumentary__skin__1</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Body Temperature (oral)</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" t="str">
+        <v>°F</v>
+      </c>
+      <c r="E98" t="str">
+        <v>_f_group</v>
+      </c>
+      <c r="F98">
+        <v>97.8</v>
+      </c>
+      <c r="G98">
+        <v>99</v>
+      </c>
+      <c r="H98" t="str">
+        <v>N</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Body Temperature (oral) - Integumentary (Skin)</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>integumentary__skin__2</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Skin pH (surface)</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99" t="str">
+        <v>pH units</v>
+      </c>
+      <c r="E99" t="str">
+        <v>ph_units_group</v>
+      </c>
+      <c r="F99">
+        <v>4.7</v>
+      </c>
+      <c r="G99">
+        <v>5.9</v>
+      </c>
+      <c r="H99" t="str">
+        <v>N</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Skin pH (surface) - Integumentary (Skin)</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>integumentary__skin__3</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Vitamin C (Plasma)</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E100" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F100">
+        <v>0.6</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100" t="str">
+        <v>N</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Vitamin C (Plasma) - Integumentary (Skin)</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>integumentary__skin__4</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Zinc (Serum)</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101" t="str">
+        <v>μg/dL</v>
+      </c>
+      <c r="E101" t="str">
+        <v>_g_dl_group</v>
+      </c>
+      <c r="F101">
+        <v>60</v>
+      </c>
+      <c r="G101">
+        <v>130</v>
+      </c>
+      <c r="H101" t="str">
+        <v>N</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Zinc (Serum) - Integumentary (Skin)</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>integumentary__skin__5</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Copper (Serum)</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102" t="str">
+        <v>μg/dL</v>
+      </c>
+      <c r="E102" t="str">
+        <v>_g_dl_group</v>
+      </c>
+      <c r="F102">
         <v>70</v>
       </c>
-      <c r="G5">
-        <v>99</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Y</v>
-      </c>
-      <c r="I5" t="str">
-        <v>ADA</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Fasting blood glucose</v>
+      <c r="G102">
+        <v>155</v>
+      </c>
+      <c r="H102" t="str">
+        <v>N</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Copper (Serum) - Integumentary (Skin)</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>integumentary__skin__6</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Vitamin A (Retinol)</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="str">
+        <v>μg/dL</v>
+      </c>
+      <c r="E103" t="str">
+        <v>_g_dl_group</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103">
+        <v>60</v>
+      </c>
+      <c r="H103" t="str">
+        <v>N</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Vitamin A (Retinol) - Integumentary (Skin)</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>immune_inflammatory_1</v>
+      </c>
+      <c r="B104" t="str">
+        <v>White Blood Cell Count (WBC)</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104" t="str">
+        <v>per μL</v>
+      </c>
+      <c r="E104" t="str">
+        <v>per__l_group</v>
+      </c>
+      <c r="F104">
+        <v>4500</v>
+      </c>
+      <c r="G104">
+        <v>11000</v>
+      </c>
+      <c r="H104" t="str">
+        <v>N</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J104" t="str">
+        <v>White Blood Cell Count (WBC) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>immune_inflammatory_2</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Neutrophils (Absolute)</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105" t="str">
+        <v>per μL</v>
+      </c>
+      <c r="E105" t="str">
+        <v>per__l_group</v>
+      </c>
+      <c r="F105">
+        <v>1500</v>
+      </c>
+      <c r="G105">
+        <v>8000</v>
+      </c>
+      <c r="H105" t="str">
+        <v>N</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Neutrophils (Absolute) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>immune_inflammatory_3</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Lymphocytes (Absolute)</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106" t="str">
+        <v>per μL</v>
+      </c>
+      <c r="E106" t="str">
+        <v>per__l_group</v>
+      </c>
+      <c r="F106">
+        <v>1000</v>
+      </c>
+      <c r="G106">
+        <v>4000</v>
+      </c>
+      <c r="H106" t="str">
+        <v>N</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Lymphocytes (Absolute) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>immune_inflammatory_4</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Platelet Count</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107" t="str">
+        <v>per μL</v>
+      </c>
+      <c r="E107" t="str">
+        <v>per__l_group</v>
+      </c>
+      <c r="F107">
+        <v>150000</v>
+      </c>
+      <c r="G107">
+        <v>450000</v>
+      </c>
+      <c r="H107" t="str">
+        <v>N</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J107" t="str">
+        <v>Platelet Count - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>immune_inflammatory_5</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Erythrocyte Sedimentation Rate (ESR)</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108" t="str">
+        <v>mm/hour</v>
+      </c>
+      <c r="E108" t="str">
+        <v>mm_hour_group</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>30</v>
+      </c>
+      <c r="H108" t="str">
+        <v>N</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Erythrocyte Sedimentation Rate (ESR) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>immune_inflammatory_6</v>
+      </c>
+      <c r="B109" t="str">
+        <v>C-Reactive Protein (CRP)</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109" t="str">
+        <v>mg/L</v>
+      </c>
+      <c r="E109" t="str">
+        <v>mg_l_group</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>5</v>
+      </c>
+      <c r="H109" t="str">
+        <v>N</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J109" t="str">
+        <v>C-Reactive Protein (CRP) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>immune_inflammatory_7</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Rheumatoid Factor (RF)</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110" t="str">
+        <v>IU/mL</v>
+      </c>
+      <c r="E110" t="str">
+        <v>iu_ml_group</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>20</v>
+      </c>
+      <c r="H110" t="str">
+        <v>N</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J110" t="str">
+        <v>Rheumatoid Factor (RF) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>immune_inflammatory_8</v>
+      </c>
+      <c r="B111" t="str">
+        <v>IgG (Immunoglobulin G)</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E111" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F111">
+        <v>700</v>
+      </c>
+      <c r="G111">
+        <v>1600</v>
+      </c>
+      <c r="H111" t="str">
+        <v>N</v>
+      </c>
+      <c r="I111" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J111" t="str">
+        <v>IgG (Immunoglobulin G) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>immune_inflammatory_9</v>
+      </c>
+      <c r="B112" t="str">
+        <v>IgA (Immunoglobulin A)</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E112" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F112">
+        <v>70</v>
+      </c>
+      <c r="G112">
+        <v>400</v>
+      </c>
+      <c r="H112" t="str">
+        <v>N</v>
+      </c>
+      <c r="I112" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J112" t="str">
+        <v>IgA (Immunoglobulin A) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>immune_inflammatory_10</v>
+      </c>
+      <c r="B113" t="str">
+        <v>IgM (Immunoglobulin M)</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E113" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F113">
+        <v>40</v>
+      </c>
+      <c r="G113">
+        <v>230</v>
+      </c>
+      <c r="H113" t="str">
+        <v>N</v>
+      </c>
+      <c r="I113" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J113" t="str">
+        <v>IgM (Immunoglobulin M) - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>immune_inflammatory_11</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Complement C3</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E114" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F114">
+        <v>90</v>
+      </c>
+      <c r="G114">
+        <v>180</v>
+      </c>
+      <c r="H114" t="str">
+        <v>N</v>
+      </c>
+      <c r="I114" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J114" t="str">
+        <v>Complement C3 - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>immune_inflammatory_12</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Complement C4</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E115" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>40</v>
+      </c>
+      <c r="H115" t="str">
+        <v>N</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J115" t="str">
+        <v>Complement C4 - Immune/Inflammatory</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>sensory__vision__1</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Visual Acuity (Snellen)</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116" t="str">
+        <v>%</v>
+      </c>
+      <c r="E116" t="str">
+        <v>__group</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116">
+        <v>20</v>
+      </c>
+      <c r="H116" t="str">
+        <v>N</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J116" t="str">
+        <v>Visual Acuity (Snellen) - Sensory (Vision)</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>sensory__vision__2</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Intraocular Pressure (IOP)</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="str">
+        <v>mmHg</v>
+      </c>
+      <c r="E117" t="str">
+        <v>mmhg_group</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>21</v>
+      </c>
+      <c r="H117" t="str">
+        <v>N</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J117" t="str">
+        <v>Intraocular Pressure (IOP) - Sensory (Vision)</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>sensory__vision__3</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Color Vision (Ishihara)</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118" t="str">
+        <v>unitless</v>
+      </c>
+      <c r="E118" t="str">
+        <v>unitless_group</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="str">
+        <v>N</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J118" t="str">
+        <v>Color Vision (Ishihara) - Sensory (Vision)</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>sensory__hearing__1</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Hearing Level (Audiometry)</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119" t="str">
+        <v>dB HL</v>
+      </c>
+      <c r="E119" t="str">
+        <v>db_hl_group</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>25</v>
+      </c>
+      <c r="H119" t="str">
+        <v>N</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J119" t="str">
+        <v>Hearing Level (Audiometry) - Sensory (Hearing)</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>sensory__hearing__2</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Tympanic Membrane Mobility</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+      <c r="D120" t="str">
+        <v>– (qualitative)</v>
+      </c>
+      <c r="E120" t="str">
+        <v>___qualitative__group</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="str">
+        <v>N</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J120" t="str">
+        <v>Tympanic Membrane Mobility - Sensory (Hearing)</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>biological_age_epigenetics_1</v>
+      </c>
+      <c r="B121" t="str">
+        <v>DNA Methylation Age (Epigenetic Age)</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+      <c r="D121" t="str">
+        <v>years</v>
+      </c>
+      <c r="E121" t="str">
+        <v>years_group</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="str">
+        <v>N</v>
+      </c>
+      <c r="I121" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J121" t="str">
+        <v>DNA Methylation Age (Epigenetic Age) - Biological Age/Epigenetics</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>biological_age_epigenetics_2</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Telomere Length (Leukocyte)</v>
+      </c>
+      <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="D122" t="str">
+        <v>kilobases</v>
+      </c>
+      <c r="E122" t="str">
+        <v>kilobases_group</v>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
+        <v>10</v>
+      </c>
+      <c r="H122" t="str">
+        <v>N</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J122" t="str">
+        <v>Telomere Length (Leukocyte) - Biological Age/Epigenetics</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>biological_age_epigenetics_3</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Frailty Index</v>
+      </c>
+      <c r="C123">
+        <v>12</v>
+      </c>
+      <c r="D123" t="str">
+        <v>(proportion)</v>
+      </c>
+      <c r="E123" t="str">
+        <v>_proportion__group</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0.2</v>
+      </c>
+      <c r="H123" t="str">
+        <v>N</v>
+      </c>
+      <c r="I123" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J123" t="str">
+        <v>Frailty Index - Biological Age/Epigenetics</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>biological_age_epigenetics_4</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Grip Strength</v>
+      </c>
+      <c r="C124">
+        <v>12</v>
+      </c>
+      <c r="D124" t="str">
+        <v>kg</v>
+      </c>
+      <c r="E124" t="str">
+        <v>kg_group</v>
+      </c>
+      <c r="F124">
+        <v>20</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="str">
+        <v>N</v>
+      </c>
+      <c r="I124" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J124" t="str">
+        <v>Grip Strength - Biological Age/Epigenetics</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>biological_age_epigenetics_5</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Gait Speed (4-m walk)</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125" t="str">
+        <v>m/s</v>
+      </c>
+      <c r="E125" t="str">
+        <v>m_s_group</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="str">
+        <v>N</v>
+      </c>
+      <c r="I125" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J125" t="str">
+        <v>Gait Speed (4-m walk) - Biological Age/Epigenetics</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>biological_age_epigenetics_6</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Bone Density (T-score)</v>
+      </c>
+      <c r="C126">
+        <v>12</v>
+      </c>
+      <c r="D126" t="str">
+        <v>– (SD score)</v>
+      </c>
+      <c r="E126" t="str">
+        <v>___sd_score__group</v>
+      </c>
+      <c r="F126">
+        <v>-1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="str">
+        <v>N</v>
+      </c>
+      <c r="I126" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J126" t="str">
+        <v>Bone Density (T-score) - Biological Age/Epigenetics</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>biological_age_epigenetics_7</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Advanced Glycation (AGEs)</v>
+      </c>
+      <c r="C127">
+        <v>12</v>
+      </c>
+      <c r="D127" t="str">
+        <v>AU (arbitrary)</v>
+      </c>
+      <c r="E127" t="str">
+        <v>au__arbitrary__group</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>14</v>
+      </c>
+      <c r="H127" t="str">
+        <v>N</v>
+      </c>
+      <c r="I127" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J127" t="str">
+        <v>Advanced Glycation (AGEs) - Biological Age/Epigenetics</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>cardiovascular_30</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Non-HDL Cholesterol</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E128" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>130</v>
+      </c>
+      <c r="H128" t="str">
+        <v>N</v>
+      </c>
+      <c r="I128" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J128" t="str">
+        <v>Non-HDL Cholesterol - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>cardiovascular_31</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Cholesterol/HDL Ratio</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="str">
+        <v>ratio (unitless)</v>
+      </c>
+      <c r="E129" t="str">
+        <v>ratio__unitless__group</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129" t="str">
+        <v>N</v>
+      </c>
+      <c r="I129" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J129" t="str">
+        <v>Cholesterol/HDL Ratio - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>cardiovascular_32</v>
+      </c>
+      <c r="B130" t="str">
+        <v>VLDL Cholesterol</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="E130" t="str">
+        <v>mg_dl_group</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130">
+        <v>30</v>
+      </c>
+      <c r="H130" t="str">
+        <v>N</v>
+      </c>
+      <c r="I130" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J130" t="str">
+        <v>VLDL Cholesterol - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>cardiovascular_33</v>
+      </c>
+      <c r="B131" t="str">
+        <v>LDL Particle Number (LDL-P)</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="str">
+        <v>nmol/L</v>
+      </c>
+      <c r="E131" t="str">
+        <v>nmol_l_group</v>
+      </c>
+      <c r="H131" t="str">
+        <v>N</v>
+      </c>
+      <c r="I131" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J131" t="str">
+        <v>LDL Particle Number (LDL-P) - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>cardiovascular_34</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Small LDL-P</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="str">
+        <v>nmol/L</v>
+      </c>
+      <c r="E132" t="str">
+        <v>nmol_l_group</v>
+      </c>
+      <c r="H132" t="str">
+        <v>N</v>
+      </c>
+      <c r="I132" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J132" t="str">
+        <v>Small LDL-P - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>cardiovascular_35</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Medium LDL-P</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="str">
+        <v>nmol/L</v>
+      </c>
+      <c r="E133" t="str">
+        <v>nmol_l_group</v>
+      </c>
+      <c r="H133" t="str">
+        <v>N</v>
+      </c>
+      <c r="I133" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J133" t="str">
+        <v>Medium LDL-P - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>cardiovascular_36</v>
+      </c>
+      <c r="B134" t="str">
+        <v>HDL Large</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="str">
+        <v>nmol/L</v>
+      </c>
+      <c r="E134" t="str">
+        <v>nmol_l_group</v>
+      </c>
+      <c r="H134" t="str">
+        <v>N</v>
+      </c>
+      <c r="I134" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J134" t="str">
+        <v>HDL Large - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>cardiovascular_37</v>
+      </c>
+      <c r="B135" t="str">
+        <v>LDL Particle Size</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Angstrom</v>
+      </c>
+      <c r="E135" t="str">
+        <v>angstrom_group</v>
+      </c>
+      <c r="H135" t="str">
+        <v>N</v>
+      </c>
+      <c r="I135" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J135" t="str">
+        <v>LDL Particle Size - Cardiovascular</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>cardiovascular_38</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Lp-PLA2 Activity</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="str">
+        <v>nmol/min/mL</v>
+      </c>
+      <c r="E136" t="str">
+        <v>nmol_min_ml_group</v>
+      </c>
+      <c r="H136" t="str">
+        <v>N</v>
+      </c>
+      <c r="I136" t="str">
+        <v>Medical Catalog</v>
+      </c>
+      <c r="J136" t="str">
+        <v>Lp-PLA2 Activity - Cardiovascular</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J136"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -597,13 +4753,13 @@
         <v>syn1</v>
       </c>
       <c r="B2" t="str">
-        <v>cholesterol_total</v>
+        <v>cardiovascular_2</v>
       </c>
       <c r="C2" t="str">
-        <v>TC</v>
+        <v>Systolic BP</v>
       </c>
       <c r="D2" t="str">
-        <v>Total Cholesterol</v>
+        <v>Synonym for Blood Pressure (Systolic)</v>
       </c>
     </row>
     <row r="3">
@@ -611,13 +4767,13 @@
         <v>syn2</v>
       </c>
       <c r="B3" t="str">
-        <v>hdl</v>
+        <v>cardiovascular_2</v>
       </c>
       <c r="C3" t="str">
-        <v>HDL-C</v>
+        <v>SBP</v>
       </c>
       <c r="D3" t="str">
-        <v>HDL Cholesterol</v>
+        <v>Synonym for Blood Pressure (Systolic)</v>
       </c>
     </row>
     <row r="4">
@@ -625,13 +4781,13 @@
         <v>syn3</v>
       </c>
       <c r="B4" t="str">
-        <v>ldl</v>
+        <v>cardiovascular_2</v>
       </c>
       <c r="C4" t="str">
-        <v>LDL-C</v>
+        <v>Systolic Pressure</v>
       </c>
       <c r="D4" t="str">
-        <v>LDL Cholesterol</v>
+        <v>Synonym for Blood Pressure (Systolic)</v>
       </c>
     </row>
     <row r="5">
@@ -639,25 +4795,1663 @@
         <v>syn4</v>
       </c>
       <c r="B5" t="str">
-        <v>glucose_fasting</v>
+        <v>cardiovascular_2</v>
       </c>
       <c r="C5" t="str">
-        <v>FBG</v>
+        <v>Blood Pressure Systolic</v>
       </c>
       <c r="D5" t="str">
-        <v>Fasting Blood Glucose</v>
+        <v>Synonym for Blood Pressure (Systolic)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>syn5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>cardiovascular_2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Presión Sistólica</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Synonym for Blood Pressure (Systolic)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>syn6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>cardiovascular_3</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Diastolic BP</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Synonym for Blood Pressure (Diastolic)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>syn7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>cardiovascular_3</v>
+      </c>
+      <c r="C8" t="str">
+        <v>DBP</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Synonym for Blood Pressure (Diastolic)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>syn8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>cardiovascular_3</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Diastolic Pressure</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Synonym for Blood Pressure (Diastolic)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>syn9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>cardiovascular_3</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Blood Pressure Diastolic</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Synonym for Blood Pressure (Diastolic)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>syn10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>cardiovascular_3</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Presión Diastólica</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Synonym for Blood Pressure (Diastolic)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>syn11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Cholesterol Total</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Synonym for Total Cholesterol</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>syn12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="C13" t="str">
+        <v>TC</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Synonym for Total Cholesterol</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>syn13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Chol</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Synonym for Total Cholesterol</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>syn14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Cholesterol, Total</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Synonym for Total Cholesterol</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>syn15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Total Chol</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Synonym for Total Cholesterol</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>syn16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Colesterol Total</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Synonym for Total Cholesterol</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>syn17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>cardiovascular_6</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Cholesterol (Total)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Synonym for Total Cholesterol</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>syn18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>cardiovascular_9</v>
+      </c>
+      <c r="C19" t="str">
+        <v>TG</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Synonym for Triglycerides</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>syn19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>cardiovascular_9</v>
+      </c>
+      <c r="C20" t="str">
+        <v>TRIG</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Synonym for Triglycerides</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>syn20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>cardiovascular_9</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Triglycerids</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Synonym for Triglycerides</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>syn21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>cardiovascular_9</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Triglyceride</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Synonym for Triglycerides</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>syn22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>cardiovascular_9</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Trigliceridos</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Synonym for Triglycerides</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>syn23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>cardiovascular_23</v>
+      </c>
+      <c r="C24" t="str">
+        <v>HCT</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Synonym for Hematocrit</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>syn24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>cardiovascular_23</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Hct</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Synonym for Hematocrit</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>syn25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>cardiovascular_23</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Packed Cell Volume</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Synonym for Hematocrit</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>syn26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>cardiovascular_23</v>
+      </c>
+      <c r="C27" t="str">
+        <v>PCV</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Synonym for Hematocrit</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>syn27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>cardiovascular_23</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Hematocrito</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Synonym for Hematocrit</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>syn28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>cardiovascular_24</v>
+      </c>
+      <c r="C29" t="str">
+        <v>RBC</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Synonym for Red Blood Cell Count</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>syn29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>cardiovascular_24</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Red Blood Cells</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Synonym for Red Blood Cell Count</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>syn30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>cardiovascular_24</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Erythrocytes</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Synonym for Red Blood Cell Count</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>syn31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>cardiovascular_24</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Glóbulos Rojos</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Synonym for Red Blood Cell Count</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>syn32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>cardiovascular_24</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Eritrocitos</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Synonym for Red Blood Cell Count</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>syn33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>digestive_1</v>
+      </c>
+      <c r="C34" t="str">
+        <v>ALT</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Synonym for Alanine Aminotransferase (ALT)</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>syn34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>digestive_1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>SGPT</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Synonym for Alanine Aminotransferase (ALT)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>syn35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>digestive_1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Alanine Transaminase</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Synonym for Alanine Aminotransferase (ALT)</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>syn36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>digestive_1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>GPT</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Synonym for Alanine Aminotransferase (ALT)</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>syn37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>digestive_1</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Alanina Aminotransferasa</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Synonym for Alanine Aminotransferase (ALT)</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>syn38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>digestive_2</v>
+      </c>
+      <c r="C39" t="str">
+        <v>AST</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Synonym for Aspartate Aminotransferase (AST)</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>syn39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>digestive_2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>SGOT</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Synonym for Aspartate Aminotransferase (AST)</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>syn40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>digestive_2</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Aspartate Transaminase</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Synonym for Aspartate Aminotransferase (AST)</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>syn41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>digestive_2</v>
+      </c>
+      <c r="C42" t="str">
+        <v>GOT</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Synonym for Aspartate Aminotransferase (AST)</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>syn42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>digestive_2</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Aspartato Aminotransferasa</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Synonym for Aspartate Aminotransferase (AST)</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>syn43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>digestive_5</v>
+      </c>
+      <c r="C44" t="str">
+        <v>TBIL</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Synonym for Total Bilirubin</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>syn44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>digestive_5</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Bilirubin Total</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Synonym for Total Bilirubin</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>syn45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>digestive_5</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Tot Bili</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Synonym for Total Bilirubin</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>syn46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>digestive_5</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Bilirrubina Total</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Synonym for Total Bilirubin</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>syn47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>endocrine_hormonal_1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>TSH</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Synonym for Thyroid Stimulating Hormone (TSH)</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>syn48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>endocrine_hormonal_1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Thyrotropin</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Synonym for Thyroid Stimulating Hormone (TSH)</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>syn49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>endocrine_hormonal_1</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Thyroid Stimulating Hormone</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Synonym for Thyroid Stimulating Hormone (TSH)</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>syn50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>endocrine_hormonal_1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Hormona Estimulante de Tiroides</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Synonym for Thyroid Stimulating Hormone (TSH)</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>syn51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="C52" t="str">
+        <v>FPG</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Synonym for Fasting Glucose</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>syn52</v>
+      </c>
+      <c r="B53" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Fasting Plasma Glucose</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Synonym for Fasting Glucose</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>syn53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Glucose, Fasting</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Synonym for Fasting Glucose</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>syn54</v>
+      </c>
+      <c r="B55" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="C55" t="str">
+        <v>FBS</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Synonym for Fasting Glucose</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>syn55</v>
+      </c>
+      <c r="B56" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Fasting Blood Sugar</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Synonym for Fasting Glucose</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>syn56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Glucosa en Ayunas</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Synonym for Fasting Glucose</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>syn57</v>
+      </c>
+      <c r="B58" t="str">
+        <v>endocrine_hormonal_6</v>
+      </c>
+      <c r="C58" t="str">
+        <v>GLU</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Synonym for Fasting Glucose</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>syn58</v>
+      </c>
+      <c r="B59" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C59" t="str">
+        <v>HbA1c</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>syn59</v>
+      </c>
+      <c r="B60" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C60" t="str">
+        <v>A1C</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>syn60</v>
+      </c>
+      <c r="B61" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Hemoglobin A1C</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>syn61</v>
+      </c>
+      <c r="B62" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Glycated Hemoglobin</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>syn62</v>
+      </c>
+      <c r="B63" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Glycohemoglobin</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>syn63</v>
+      </c>
+      <c r="B64" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C64" t="str">
+        <v>HBA1C</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>syn64</v>
+      </c>
+      <c r="B65" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Hemoglobina Glicosilada</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>syn65</v>
+      </c>
+      <c r="B66" t="str">
+        <v>endocrine_hormonal_7</v>
+      </c>
+      <c r="C66" t="str">
+        <v>A1c</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Synonym for Hemoglobin A1c (HbA1c)</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>syn66</v>
+      </c>
+      <c r="B67" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="C67" t="str">
+        <v>25-OH Vitamin D</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Synonym for Vitamin D, 25-OH</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>syn67</v>
+      </c>
+      <c r="B68" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="C68" t="str">
+        <v>25(OH)D</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Synonym for Vitamin D, 25-OH</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>syn68</v>
+      </c>
+      <c r="B69" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Calcidiol</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Synonym for Vitamin D, 25-OH</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>syn69</v>
+      </c>
+      <c r="B70" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="C70" t="str">
+        <v>25-Hydroxyvitamin D</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Synonym for Vitamin D, 25-OH</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>syn70</v>
+      </c>
+      <c r="B71" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Vitamin D3</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Synonym for Vitamin D, 25-OH</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>syn71</v>
+      </c>
+      <c r="B72" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="C72" t="str">
+        <v>VitD</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Synonym for Vitamin D, 25-OH</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>syn72</v>
+      </c>
+      <c r="B73" t="str">
+        <v>endocrine_hormonal_9</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Vitamina D</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Synonym for Vitamin D, 25-OH</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>syn73</v>
+      </c>
+      <c r="B74" t="str">
+        <v>urinary_renal_1</v>
+      </c>
+      <c r="C74" t="str">
+        <v>BUN</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Synonym for Blood Urea Nitrogen (BUN)</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>syn74</v>
+      </c>
+      <c r="B75" t="str">
+        <v>urinary_renal_1</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Urea Nitrogen</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Synonym for Blood Urea Nitrogen (BUN)</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>syn75</v>
+      </c>
+      <c r="B76" t="str">
+        <v>urinary_renal_1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Blood Urea</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Synonym for Blood Urea Nitrogen (BUN)</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>syn76</v>
+      </c>
+      <c r="B77" t="str">
+        <v>urinary_renal_1</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Nitrógeno Ureico</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Synonym for Blood Urea Nitrogen (BUN)</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>syn77</v>
+      </c>
+      <c r="B78" t="str">
+        <v>urinary_renal_1</v>
+      </c>
+      <c r="C78" t="str">
+        <v>UN</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Synonym for Blood Urea Nitrogen (BUN)</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>syn78</v>
+      </c>
+      <c r="B79" t="str">
+        <v>urinary_renal_2</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Creatinine</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Synonym for Serum Creatinine</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>syn79</v>
+      </c>
+      <c r="B80" t="str">
+        <v>urinary_renal_2</v>
+      </c>
+      <c r="C80" t="str">
+        <v>CREA</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Synonym for Serum Creatinine</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>syn80</v>
+      </c>
+      <c r="B81" t="str">
+        <v>urinary_renal_2</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Serum Creat</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Synonym for Serum Creatinine</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>syn81</v>
+      </c>
+      <c r="B82" t="str">
+        <v>urinary_renal_2</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Creat</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Synonym for Serum Creatinine</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>syn82</v>
+      </c>
+      <c r="B83" t="str">
+        <v>urinary_renal_2</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Creatinina</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Synonym for Serum Creatinine</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>syn83</v>
+      </c>
+      <c r="B84" t="str">
+        <v>urinary_renal_2</v>
+      </c>
+      <c r="C84" t="str">
+        <v>SCr</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Synonym for Serum Creatinine</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>syn84</v>
+      </c>
+      <c r="B85" t="str">
+        <v>immune_inflammatory_4</v>
+      </c>
+      <c r="C85" t="str">
+        <v>PLT</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Synonym for Platelet Count</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>syn85</v>
+      </c>
+      <c r="B86" t="str">
+        <v>immune_inflammatory_4</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Platelets</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Synonym for Platelet Count</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>syn86</v>
+      </c>
+      <c r="B87" t="str">
+        <v>immune_inflammatory_4</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Thrombocytes</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Synonym for Platelet Count</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>syn87</v>
+      </c>
+      <c r="B88" t="str">
+        <v>immune_inflammatory_4</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Plaquetas</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Synonym for Platelet Count</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>syn88</v>
+      </c>
+      <c r="B89" t="str">
+        <v>immune_inflammatory_4</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Trombocitos</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Synonym for Platelet Count</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>syn89</v>
+      </c>
+      <c r="B90" t="str">
+        <v>immune_inflammatory_6</v>
+      </c>
+      <c r="C90" t="str">
+        <v>CRP</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Synonym for C-Reactive Protein (CRP)</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>syn90</v>
+      </c>
+      <c r="B91" t="str">
+        <v>immune_inflammatory_6</v>
+      </c>
+      <c r="C91" t="str">
+        <v>hs-CRP</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Synonym for C-Reactive Protein (CRP)</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>syn91</v>
+      </c>
+      <c r="B92" t="str">
+        <v>immune_inflammatory_6</v>
+      </c>
+      <c r="C92" t="str">
+        <v>High Sensitivity CRP</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Synonym for C-Reactive Protein (CRP)</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>syn92</v>
+      </c>
+      <c r="B93" t="str">
+        <v>immune_inflammatory_6</v>
+      </c>
+      <c r="C93" t="str">
+        <v>C-Reactive Protein</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Synonym for C-Reactive Protein (CRP)</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>syn93</v>
+      </c>
+      <c r="B94" t="str">
+        <v>immune_inflammatory_6</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Proteína C Reactiva</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Synonym for C-Reactive Protein (CRP)</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>syn94</v>
+      </c>
+      <c r="B95" t="str">
+        <v>cardiovascular_30</v>
+      </c>
+      <c r="C95" t="str">
+        <v>NON-HDL CHOLESTEROL</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Synonym for Non-HDL Cholesterol</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>syn95</v>
+      </c>
+      <c r="B96" t="str">
+        <v>cardiovascular_30</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Non HDL Cholesterol</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Synonym for Non-HDL Cholesterol</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>syn96</v>
+      </c>
+      <c r="B97" t="str">
+        <v>cardiovascular_30</v>
+      </c>
+      <c r="C97" t="str">
+        <v>non-HDL</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Synonym for Non-HDL Cholesterol</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>syn97</v>
+      </c>
+      <c r="B98" t="str">
+        <v>cardiovascular_30</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Non-HDL-C</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Synonym for Non-HDL Cholesterol</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>syn98</v>
+      </c>
+      <c r="B99" t="str">
+        <v>cardiovascular_31</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Chol/HDL Ratio</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Synonym for Cholesterol/HDL Ratio</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>syn99</v>
+      </c>
+      <c r="B100" t="str">
+        <v>cardiovascular_31</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Total Cholesterol/HDL Ratio</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Synonym for Cholesterol/HDL Ratio</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>syn100</v>
+      </c>
+      <c r="B101" t="str">
+        <v>cardiovascular_31</v>
+      </c>
+      <c r="C101" t="str">
+        <v>TC/HDL Ratio</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Synonym for Cholesterol/HDL Ratio</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>syn101</v>
+      </c>
+      <c r="B102" t="str">
+        <v>cardiovascular_31</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Chol HDL Ratio</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Synonym for Cholesterol/HDL Ratio</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>syn102</v>
+      </c>
+      <c r="B103" t="str">
+        <v>cardiovascular_32</v>
+      </c>
+      <c r="C103" t="str">
+        <v>VLDL</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Synonym for VLDL Cholesterol</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>syn103</v>
+      </c>
+      <c r="B104" t="str">
+        <v>cardiovascular_32</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Very Low Density Lipoprotein</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Synonym for VLDL Cholesterol</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>syn104</v>
+      </c>
+      <c r="B105" t="str">
+        <v>cardiovascular_32</v>
+      </c>
+      <c r="C105" t="str">
+        <v>VLDL-C</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Synonym for VLDL Cholesterol</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>syn105</v>
+      </c>
+      <c r="B106" t="str">
+        <v>cardiovascular_33</v>
+      </c>
+      <c r="C106" t="str">
+        <v>LDL-P</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Synonym for LDL Particle Number (LDL-P)</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>syn106</v>
+      </c>
+      <c r="B107" t="str">
+        <v>cardiovascular_33</v>
+      </c>
+      <c r="C107" t="str">
+        <v>LDL PARTICLES, TOTAL</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Synonym for LDL Particle Number (LDL-P)</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>syn107</v>
+      </c>
+      <c r="B108" t="str">
+        <v>cardiovascular_33</v>
+      </c>
+      <c r="C108" t="str">
+        <v>LDL Particle Number</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Synonym for LDL Particle Number (LDL-P)</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>syn108</v>
+      </c>
+      <c r="B109" t="str">
+        <v>cardiovascular_34</v>
+      </c>
+      <c r="C109" t="str">
+        <v>LDL, SMALL</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Synonym for Small LDL-P</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>syn109</v>
+      </c>
+      <c r="B110" t="str">
+        <v>cardiovascular_34</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Small LDL Particle Number</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Synonym for Small LDL-P</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>syn110</v>
+      </c>
+      <c r="B111" t="str">
+        <v>cardiovascular_34</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Small LDL</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Synonym for Small LDL-P</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>syn111</v>
+      </c>
+      <c r="B112" t="str">
+        <v>cardiovascular_35</v>
+      </c>
+      <c r="C112" t="str">
+        <v>LDL, MEDIUM</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Synonym for Medium LDL-P</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>syn112</v>
+      </c>
+      <c r="B113" t="str">
+        <v>cardiovascular_35</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Medium LDL Particle Number</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Synonym for Medium LDL-P</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>syn113</v>
+      </c>
+      <c r="B114" t="str">
+        <v>cardiovascular_35</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Medium LDL</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Synonym for Medium LDL-P</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>syn114</v>
+      </c>
+      <c r="B115" t="str">
+        <v>cardiovascular_36</v>
+      </c>
+      <c r="C115" t="str">
+        <v>HDL, LARGE</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Synonym for HDL Large</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>syn115</v>
+      </c>
+      <c r="B116" t="str">
+        <v>cardiovascular_36</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Large HDL</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Synonym for HDL Large</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>syn116</v>
+      </c>
+      <c r="B117" t="str">
+        <v>cardiovascular_37</v>
+      </c>
+      <c r="C117" t="str">
+        <v>LDL SIZE</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Synonym for LDL Particle Size</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>syn117</v>
+      </c>
+      <c r="B118" t="str">
+        <v>cardiovascular_37</v>
+      </c>
+      <c r="C118" t="str">
+        <v>LDL Particle Size (Å)</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Synonym for LDL Particle Size</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>syn118</v>
+      </c>
+      <c r="B119" t="str">
+        <v>cardiovascular_37</v>
+      </c>
+      <c r="C119" t="str">
+        <v>LDL Size</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Synonym for LDL Particle Size</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>syn119</v>
+      </c>
+      <c r="B120" t="str">
+        <v>cardiovascular_38</v>
+      </c>
+      <c r="C120" t="str">
+        <v>LA PLA2 ACTIVITY</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Synonym for Lp-PLA2 Activity</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>syn120</v>
+      </c>
+      <c r="B121" t="str">
+        <v>cardiovascular_38</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Lp-PLA2</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Synonym for Lp-PLA2 Activity</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>syn121</v>
+      </c>
+      <c r="B122" t="str">
+        <v>cardiovascular_38</v>
+      </c>
+      <c r="C122" t="str">
+        <v>PLA2 Activity</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Synonym for Lp-PLA2 Activity</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D122"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,7 +6478,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>cholesterol_like</v>
+        <v>mg_dl_group</v>
       </c>
       <c r="B2" t="str">
         <v>mg/dL</v>
@@ -693,38 +6487,1318 @@
         <v>mmol/L</v>
       </c>
       <c r="D2" t="str">
+        <v>x / 38.67</v>
+      </c>
+      <c r="E2" t="str">
         <v>x * 38.67</v>
       </c>
-      <c r="E2" t="str">
-        <v>x / 38.67</v>
-      </c>
       <c r="F2" t="str">
-        <v>TC, LDL, HDL</v>
+        <v>Conversion from mg/dL to mmol/L</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>glucose_like</v>
+        <v>mg_dl_group</v>
       </c>
       <c r="B3" t="str">
         <v>mg/dL</v>
       </c>
       <c r="C3" t="str">
+        <v>g/L</v>
+      </c>
+      <c r="D3" t="str">
+        <v>x / 100</v>
+      </c>
+      <c r="E3" t="str">
+        <v>x * 100</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Conversion from mg/dL to g/L</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>mmol_l_group</v>
+      </c>
+      <c r="B4" t="str">
         <v>mmol/L</v>
       </c>
-      <c r="D3" t="str">
-        <v>x * 18.0</v>
-      </c>
-      <c r="E3" t="str">
-        <v>x / 18.0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Glucose fasting</v>
+      <c r="C4" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="D4" t="str">
+        <v>x * 38.67</v>
+      </c>
+      <c r="E4" t="str">
+        <v>x / 38.67</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Conversion from mmol/L to mg/dL</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>mmol_l_group</v>
+      </c>
+      <c r="B5" t="str">
+        <v>mmol/L</v>
+      </c>
+      <c r="C5" t="str">
+        <v>g/L</v>
+      </c>
+      <c r="D5" t="str">
+        <v>x / 38.67</v>
+      </c>
+      <c r="E5" t="str">
+        <v>x * 38.67</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Conversion from mmol/L to g/L</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>g_dl_group</v>
+      </c>
+      <c r="B6" t="str">
+        <v>g/dL</v>
+      </c>
+      <c r="C6" t="str">
+        <v>g/L</v>
+      </c>
+      <c r="D6" t="str">
+        <v>x * 10</v>
+      </c>
+      <c r="E6" t="str">
+        <v>x / 10</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Conversion from g/dL to g/L</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>g_dl_group</v>
+      </c>
+      <c r="B7" t="str">
+        <v>g/dL</v>
+      </c>
+      <c r="C7" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="D7" t="str">
+        <v>x * 1000</v>
+      </c>
+      <c r="E7" t="str">
+        <v>x / 1000</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Conversion from g/dL to mg/dL</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>g_l_group</v>
+      </c>
+      <c r="B8" t="str">
+        <v>g/L</v>
+      </c>
+      <c r="C8" t="str">
+        <v>g/dL</v>
+      </c>
+      <c r="D8" t="str">
+        <v>x / 10</v>
+      </c>
+      <c r="E8" t="str">
+        <v>x * 10</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Conversion from g/L to g/dL</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>g_l_group</v>
+      </c>
+      <c r="B9" t="str">
+        <v>g/L</v>
+      </c>
+      <c r="C9" t="str">
+        <v>mg/dL</v>
+      </c>
+      <c r="D9" t="str">
+        <v>x * 100</v>
+      </c>
+      <c r="E9" t="str">
+        <v>x / 100</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Conversion from g/L to mg/dL</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>g_l_group</v>
+      </c>
+      <c r="B10" t="str">
+        <v>g/L</v>
+      </c>
+      <c r="C10" t="str">
+        <v>mmol/L</v>
+      </c>
+      <c r="D10" t="str">
+        <v>x * 38.67</v>
+      </c>
+      <c r="E10" t="str">
+        <v>x / 38.67</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Conversion from g/L to mmol/L</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>mmhg_group</v>
+      </c>
+      <c r="B11" t="str">
+        <v>mmHg</v>
+      </c>
+      <c r="C11" t="str">
+        <v>kPa</v>
+      </c>
+      <c r="D11" t="str">
+        <v>x / 7.5</v>
+      </c>
+      <c r="E11" t="str">
+        <v>x * 7.5</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Conversion from mmHg to kPa</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>u_l_group</v>
+      </c>
+      <c r="B12" t="str">
+        <v>U/L</v>
+      </c>
+      <c r="C12" t="str">
+        <v>μkat/L</v>
+      </c>
+      <c r="D12" t="str">
+        <v>x * 0.0167</v>
+      </c>
+      <c r="E12" t="str">
+        <v>x / 0.0167</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Conversion from U/L to μkat/L</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>pg_ml_group</v>
+      </c>
+      <c r="B13" t="str">
+        <v>pg/mL</v>
+      </c>
+      <c r="C13" t="str">
+        <v>pmol/L</v>
+      </c>
+      <c r="D13" t="str">
+        <v>x * 0.001</v>
+      </c>
+      <c r="E13" t="str">
+        <v>x * 1000</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Conversion from pg/mL to pmol/L</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>ng_ml_group</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ng/mL</v>
+      </c>
+      <c r="C14" t="str">
+        <v>nmol/L</v>
+      </c>
+      <c r="D14" t="str">
+        <v>x * 0.001</v>
+      </c>
+      <c r="E14" t="str">
+        <v>x * 1000</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Conversion from ng/mL to nmol/L</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>_g_dl_group</v>
+      </c>
+      <c r="B15" t="str">
+        <v>μg/dL</v>
+      </c>
+      <c r="C15" t="str">
+        <v>μmol/L</v>
+      </c>
+      <c r="D15" t="str">
+        <v>x * 0.01</v>
+      </c>
+      <c r="E15" t="str">
+        <v>x * 100</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Conversion from μg/dL to μmol/L</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>mg_l_group</v>
+      </c>
+      <c r="B16" t="str">
+        <v>mg/L</v>
+      </c>
+      <c r="C16" t="str">
+        <v>μmol/L</v>
+      </c>
+      <c r="D16" t="str">
+        <v>x * 1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>x / 1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Conversion from mg/L to μmol/L</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>beats_min__bpm__group</v>
+      </c>
+      <c r="B17" t="str">
+        <v>beats/min (bpm)</v>
+      </c>
+      <c r="C17" t="str">
+        <v>beats/min (bpm)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>x</v>
+      </c>
+      <c r="E17" t="str">
+        <v>x</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Identity conversion for beats/min (bpm)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>__group</v>
+      </c>
+      <c r="B18" t="str">
+        <v>%</v>
+      </c>
+      <c r="C18" t="str">
+        <v>%</v>
+      </c>
+      <c r="D18" t="str">
+        <v>x</v>
+      </c>
+      <c r="E18" t="str">
+        <v>x</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Identity conversion for %</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>l_min_group</v>
+      </c>
+      <c r="B19" t="str">
+        <v>L/min</v>
+      </c>
+      <c r="C19" t="str">
+        <v>L/min</v>
+      </c>
+      <c r="D19" t="str">
+        <v>x</v>
+      </c>
+      <c r="E19" t="str">
+        <v>x</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Identity conversion for L/min</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>_mol_l_group</v>
+      </c>
+      <c r="B20" t="str">
+        <v>μmol/L</v>
+      </c>
+      <c r="C20" t="str">
+        <v>μmol/L</v>
+      </c>
+      <c r="D20" t="str">
+        <v>x</v>
+      </c>
+      <c r="E20" t="str">
+        <v>x</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Identity conversion for μmol/L</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>_g_ml_feu_group</v>
+      </c>
+      <c r="B21" t="str">
+        <v>μg/mL FEU</v>
+      </c>
+      <c r="C21" t="str">
+        <v>μg/mL FEU</v>
+      </c>
+      <c r="D21" t="str">
+        <v>x</v>
+      </c>
+      <c r="E21" t="str">
+        <v>x</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Identity conversion for μg/mL FEU</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>ng_l__hs_assays__group</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ng/L (hs assays)</v>
+      </c>
+      <c r="C22" t="str">
+        <v>ng/L (hs assays)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>x</v>
+      </c>
+      <c r="E22" t="str">
+        <v>x</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Identity conversion for ng/L (hs assays)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>pmol_l_group</v>
+      </c>
+      <c r="B23" t="str">
+        <v>pmol/L</v>
+      </c>
+      <c r="C23" t="str">
+        <v>pmol/L</v>
+      </c>
+      <c r="D23" t="str">
+        <v>x</v>
+      </c>
+      <c r="E23" t="str">
+        <v>x</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Identity conversion for pmol/L</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>_m_group</v>
+      </c>
+      <c r="B24" t="str">
+        <v>μM</v>
+      </c>
+      <c r="C24" t="str">
+        <v>μM</v>
+      </c>
+      <c r="D24" t="str">
+        <v>x</v>
+      </c>
+      <c r="E24" t="str">
+        <v>x</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Identity conversion for μM</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>___fraction__group</v>
+      </c>
+      <c r="B25" t="str">
+        <v>% (fraction)</v>
+      </c>
+      <c r="C25" t="str">
+        <v>% (fraction)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>x</v>
+      </c>
+      <c r="E25" t="str">
+        <v>x</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Identity conversion for % (fraction)</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>million__l_group</v>
+      </c>
+      <c r="B26" t="str">
+        <v>million/μL</v>
+      </c>
+      <c r="C26" t="str">
+        <v>million/μL</v>
+      </c>
+      <c r="D26" t="str">
+        <v>x</v>
+      </c>
+      <c r="E26" t="str">
+        <v>x</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Identity conversion for million/μL</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>fl_group</v>
+      </c>
+      <c r="B27" t="str">
+        <v>fL</v>
+      </c>
+      <c r="C27" t="str">
+        <v>fL</v>
+      </c>
+      <c r="D27" t="str">
+        <v>x</v>
+      </c>
+      <c r="E27" t="str">
+        <v>x</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Identity conversion for fL</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>pg_cell_group</v>
+      </c>
+      <c r="B28" t="str">
+        <v>pg/cell</v>
+      </c>
+      <c r="C28" t="str">
+        <v>pg/cell</v>
+      </c>
+      <c r="D28" t="str">
+        <v>x</v>
+      </c>
+      <c r="E28" t="str">
+        <v>x</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Identity conversion for pg/cell</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>ratio__unitless__group</v>
+      </c>
+      <c r="B29" t="str">
+        <v>ratio (unitless)</v>
+      </c>
+      <c r="C29" t="str">
+        <v>ratio (unitless)</v>
+      </c>
+      <c r="D29" t="str">
+        <v>x</v>
+      </c>
+      <c r="E29" t="str">
+        <v>x</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Identity conversion for ratio (unitless)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>mm_h2o_group</v>
+      </c>
+      <c r="B30" t="str">
+        <v>mm H2O</v>
+      </c>
+      <c r="C30" t="str">
+        <v>mm H2O</v>
+      </c>
+      <c r="D30" t="str">
+        <v>x</v>
+      </c>
+      <c r="E30" t="str">
+        <v>x</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Identity conversion for mm H2O</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>cells__l_group</v>
+      </c>
+      <c r="B31" t="str">
+        <v>cells/μL</v>
+      </c>
+      <c r="C31" t="str">
+        <v>cells/μL</v>
+      </c>
+      <c r="D31" t="str">
+        <v>x</v>
+      </c>
+      <c r="E31" t="str">
+        <v>x</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Identity conversion for cells/μL</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>meq_l_group</v>
+      </c>
+      <c r="B32" t="str">
+        <v>mEq/L</v>
+      </c>
+      <c r="C32" t="str">
+        <v>mEq/L</v>
+      </c>
+      <c r="D32" t="str">
+        <v>x</v>
+      </c>
+      <c r="E32" t="str">
+        <v>x</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Identity conversion for mEq/L</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>score__3_15__group</v>
+      </c>
+      <c r="B33" t="str">
+        <v>score (3–15)</v>
+      </c>
+      <c r="C33" t="str">
+        <v>score (3–15)</v>
+      </c>
+      <c r="D33" t="str">
+        <v>x</v>
+      </c>
+      <c r="E33" t="str">
+        <v>x</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Identity conversion for score (3–15)</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>ph_units_group</v>
+      </c>
+      <c r="B34" t="str">
+        <v>pH units</v>
+      </c>
+      <c r="C34" t="str">
+        <v>pH units</v>
+      </c>
+      <c r="D34" t="str">
+        <v>x</v>
+      </c>
+      <c r="E34" t="str">
+        <v>x</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Identity conversion for pH units</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>___on_room_air__group</v>
+      </c>
+      <c r="B35" t="str">
+        <v>% (on room air)</v>
+      </c>
+      <c r="C35" t="str">
+        <v>% (on room air)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>x</v>
+      </c>
+      <c r="E35" t="str">
+        <v>x</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Identity conversion for % (on room air)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>breaths_min_group</v>
+      </c>
+      <c r="B36" t="str">
+        <v>breaths/min</v>
+      </c>
+      <c r="C36" t="str">
+        <v>breaths/min</v>
+      </c>
+      <c r="D36" t="str">
+        <v>x</v>
+      </c>
+      <c r="E36" t="str">
+        <v>x</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Identity conversion for breaths/min</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>ml__at_rest__group</v>
+      </c>
+      <c r="B37" t="str">
+        <v>mL (at rest)</v>
+      </c>
+      <c r="C37" t="str">
+        <v>mL (at rest)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>x</v>
+      </c>
+      <c r="E37" t="str">
+        <v>x</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Identity conversion for mL (at rest)</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>liters_group</v>
+      </c>
+      <c r="B38" t="str">
+        <v>liters</v>
+      </c>
+      <c r="C38" t="str">
+        <v>liters</v>
+      </c>
+      <c r="D38" t="str">
+        <v>x</v>
+      </c>
+      <c r="E38" t="str">
+        <v>x</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Identity conversion for liters</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>ratio__no_units__group</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ratio (no units)</v>
+      </c>
+      <c r="C39" t="str">
+        <v>ratio (no units)</v>
+      </c>
+      <c r="D39" t="str">
+        <v>x</v>
+      </c>
+      <c r="E39" t="str">
+        <v>x</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Identity conversion for ratio (no units)</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>miu_l_group</v>
+      </c>
+      <c r="B40" t="str">
+        <v>mIU/L</v>
+      </c>
+      <c r="C40" t="str">
+        <v>mIU/L</v>
+      </c>
+      <c r="D40" t="str">
+        <v>x</v>
+      </c>
+      <c r="E40" t="str">
+        <v>x</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Identity conversion for mIU/L</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>ng_dl_group</v>
+      </c>
+      <c r="B41" t="str">
+        <v>ng/dL</v>
+      </c>
+      <c r="C41" t="str">
+        <v>ng/dL</v>
+      </c>
+      <c r="D41" t="str">
+        <v>x</v>
+      </c>
+      <c r="E41" t="str">
+        <v>x</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Identity conversion for ng/dL</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>___of_total_hb__group</v>
+      </c>
+      <c r="B42" t="str">
+        <v>% (of total Hb)</v>
+      </c>
+      <c r="C42" t="str">
+        <v>% (of total Hb)</v>
+      </c>
+      <c r="D42" t="str">
+        <v>x</v>
+      </c>
+      <c r="E42" t="str">
+        <v>x</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Identity conversion for % (of total Hb)</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>_iu_ml_group</v>
+      </c>
+      <c r="B43" t="str">
+        <v>μIU/mL</v>
+      </c>
+      <c r="C43" t="str">
+        <v>μIU/mL</v>
+      </c>
+      <c r="D43" t="str">
+        <v>x</v>
+      </c>
+      <c r="E43" t="str">
+        <v>x</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Identity conversion for μIU/mL</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>ml_min_1_73_m__group</v>
+      </c>
+      <c r="B44" t="str">
+        <v>mL/min/1.73 m²</v>
+      </c>
+      <c r="C44" t="str">
+        <v>mL/min/1.73 m²</v>
+      </c>
+      <c r="D44" t="str">
+        <v>x</v>
+      </c>
+      <c r="E44" t="str">
+        <v>x</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Identity conversion for mL/min/1.73 m²</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>_ratio__group</v>
+      </c>
+      <c r="B45" t="str">
+        <v>(ratio)</v>
+      </c>
+      <c r="C45" t="str">
+        <v>(ratio)</v>
+      </c>
+      <c r="D45" t="str">
+        <v>x</v>
+      </c>
+      <c r="E45" t="str">
+        <v>x</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Identity conversion for (ratio)</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>mg_day_group</v>
+      </c>
+      <c r="B46" t="str">
+        <v>mg/day</v>
+      </c>
+      <c r="C46" t="str">
+        <v>mg/day</v>
+      </c>
+      <c r="D46" t="str">
+        <v>x</v>
+      </c>
+      <c r="E46" t="str">
+        <v>x</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Identity conversion for mg/day</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>mg_g_group</v>
+      </c>
+      <c r="B47" t="str">
+        <v>mg/g</v>
+      </c>
+      <c r="C47" t="str">
+        <v>mg/g</v>
+      </c>
+      <c r="D47" t="str">
+        <v>x</v>
+      </c>
+      <c r="E47" t="str">
+        <v>x</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Identity conversion for mg/g</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>per_hpf_group</v>
+      </c>
+      <c r="B48" t="str">
+        <v>per HPF</v>
+      </c>
+      <c r="C48" t="str">
+        <v>per HPF</v>
+      </c>
+      <c r="D48" t="str">
+        <v>x</v>
+      </c>
+      <c r="E48" t="str">
+        <v>x</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Identity conversion for per HPF</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>miu_ml_group</v>
+      </c>
+      <c r="B49" t="str">
+        <v>mIU/mL</v>
+      </c>
+      <c r="C49" t="str">
+        <v>mIU/mL</v>
+      </c>
+      <c r="D49" t="str">
+        <v>x</v>
+      </c>
+      <c r="E49" t="str">
+        <v>x</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Identity conversion for mIU/mL</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>per_ml_group</v>
+      </c>
+      <c r="B50" t="str">
+        <v>per mL</v>
+      </c>
+      <c r="C50" t="str">
+        <v>per mL</v>
+      </c>
+      <c r="D50" t="str">
+        <v>x</v>
+      </c>
+      <c r="E50" t="str">
+        <v>x</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Identity conversion for per mL</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>_f_group</v>
+      </c>
+      <c r="B51" t="str">
+        <v>°F</v>
+      </c>
+      <c r="C51" t="str">
+        <v>°F</v>
+      </c>
+      <c r="D51" t="str">
+        <v>x</v>
+      </c>
+      <c r="E51" t="str">
+        <v>x</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Identity conversion for °F</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>per__l_group</v>
+      </c>
+      <c r="B52" t="str">
+        <v>per μL</v>
+      </c>
+      <c r="C52" t="str">
+        <v>per μL</v>
+      </c>
+      <c r="D52" t="str">
+        <v>x</v>
+      </c>
+      <c r="E52" t="str">
+        <v>x</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Identity conversion for per μL</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>mm_hour_group</v>
+      </c>
+      <c r="B53" t="str">
+        <v>mm/hour</v>
+      </c>
+      <c r="C53" t="str">
+        <v>mm/hour</v>
+      </c>
+      <c r="D53" t="str">
+        <v>x</v>
+      </c>
+      <c r="E53" t="str">
+        <v>x</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Identity conversion for mm/hour</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>iu_ml_group</v>
+      </c>
+      <c r="B54" t="str">
+        <v>IU/mL</v>
+      </c>
+      <c r="C54" t="str">
+        <v>IU/mL</v>
+      </c>
+      <c r="D54" t="str">
+        <v>x</v>
+      </c>
+      <c r="E54" t="str">
+        <v>x</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Identity conversion for IU/mL</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>db_hl_group</v>
+      </c>
+      <c r="B55" t="str">
+        <v>dB HL</v>
+      </c>
+      <c r="C55" t="str">
+        <v>dB HL</v>
+      </c>
+      <c r="D55" t="str">
+        <v>x</v>
+      </c>
+      <c r="E55" t="str">
+        <v>x</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Identity conversion for dB HL</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>___qualitative__group</v>
+      </c>
+      <c r="B56" t="str">
+        <v>– (qualitative)</v>
+      </c>
+      <c r="C56" t="str">
+        <v>– (qualitative)</v>
+      </c>
+      <c r="D56" t="str">
+        <v>x</v>
+      </c>
+      <c r="E56" t="str">
+        <v>x</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Identity conversion for – (qualitative)</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>years_group</v>
+      </c>
+      <c r="B57" t="str">
+        <v>years</v>
+      </c>
+      <c r="C57" t="str">
+        <v>years</v>
+      </c>
+      <c r="D57" t="str">
+        <v>x</v>
+      </c>
+      <c r="E57" t="str">
+        <v>x</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Identity conversion for years</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>kilobases_group</v>
+      </c>
+      <c r="B58" t="str">
+        <v>kilobases</v>
+      </c>
+      <c r="C58" t="str">
+        <v>kilobases</v>
+      </c>
+      <c r="D58" t="str">
+        <v>x</v>
+      </c>
+      <c r="E58" t="str">
+        <v>x</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Identity conversion for kilobases</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>_proportion__group</v>
+      </c>
+      <c r="B59" t="str">
+        <v>(proportion)</v>
+      </c>
+      <c r="C59" t="str">
+        <v>(proportion)</v>
+      </c>
+      <c r="D59" t="str">
+        <v>x</v>
+      </c>
+      <c r="E59" t="str">
+        <v>x</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Identity conversion for (proportion)</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>kg_group</v>
+      </c>
+      <c r="B60" t="str">
+        <v>kg</v>
+      </c>
+      <c r="C60" t="str">
+        <v>kg</v>
+      </c>
+      <c r="D60" t="str">
+        <v>x</v>
+      </c>
+      <c r="E60" t="str">
+        <v>x</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Identity conversion for kg</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>m_s_group</v>
+      </c>
+      <c r="B61" t="str">
+        <v>m/s</v>
+      </c>
+      <c r="C61" t="str">
+        <v>m/s</v>
+      </c>
+      <c r="D61" t="str">
+        <v>x</v>
+      </c>
+      <c r="E61" t="str">
+        <v>x</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Identity conversion for m/s</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>___sd_score__group</v>
+      </c>
+      <c r="B62" t="str">
+        <v>– (SD score)</v>
+      </c>
+      <c r="C62" t="str">
+        <v>– (SD score)</v>
+      </c>
+      <c r="D62" t="str">
+        <v>x</v>
+      </c>
+      <c r="E62" t="str">
+        <v>x</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Identity conversion for – (SD score)</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>au__arbitrary__group</v>
+      </c>
+      <c r="B63" t="str">
+        <v>AU (arbitrary)</v>
+      </c>
+      <c r="C63" t="str">
+        <v>AU (arbitrary)</v>
+      </c>
+      <c r="D63" t="str">
+        <v>x</v>
+      </c>
+      <c r="E63" t="str">
+        <v>x</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Identity conversion for AU (arbitrary)</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>nmol_l_group</v>
+      </c>
+      <c r="B64" t="str">
+        <v>nmol/L</v>
+      </c>
+      <c r="C64" t="str">
+        <v>nmol/L</v>
+      </c>
+      <c r="D64" t="str">
+        <v>x</v>
+      </c>
+      <c r="E64" t="str">
+        <v>x</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Identity conversion for nmol/L</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>angstrom_group</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Angstrom</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Angstrom</v>
+      </c>
+      <c r="D65" t="str">
+        <v>x</v>
+      </c>
+      <c r="E65" t="str">
+        <v>x</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Identity conversion for Angstrom</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>nmol_min_ml_group</v>
+      </c>
+      <c r="B66" t="str">
+        <v>nmol/min/mL</v>
+      </c>
+      <c r="C66" t="str">
+        <v>nmol/min/mL</v>
+      </c>
+      <c r="D66" t="str">
+        <v>x</v>
+      </c>
+      <c r="E66" t="str">
+        <v>x</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Identity conversion for nmol/min/mL</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>unitless_group</v>
+      </c>
+      <c r="B67" t="str">
+        <v>unitless</v>
+      </c>
+      <c r="C67" t="str">
+        <v>unitless</v>
+      </c>
+      <c r="D67" t="str">
+        <v>x</v>
+      </c>
+      <c r="E67" t="str">
+        <v>x</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Identity conversion for unitless metrics</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F67"/>
   </ignoredErrors>
 </worksheet>
 </file>